--- a/basicMathFunction.xlsx
+++ b/basicMathFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Math Function (function Name)</t>
   </si>
@@ -136,6 +136,75 @@
   </si>
   <si>
     <t>Sumproduct</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Cube</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Circumference</t>
+  </si>
+  <si>
+    <t>Employee Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>Wz-0001</t>
+  </si>
+  <si>
+    <t>Wz-0002</t>
+  </si>
+  <si>
+    <t>Wz-0003</t>
+  </si>
+  <si>
+    <t>Ishminder</t>
+  </si>
+  <si>
+    <t>Haresh</t>
+  </si>
+  <si>
+    <t>Satyam</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -146,7 +215,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -178,14 +255,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -483,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +968,7 @@
       </c>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.28416401261221336</v>
+        <v>0.19540523679066624</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -737,73 +977,73 @@
       </c>
       <c r="C30">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31">
         <f t="shared" ref="C31:C40" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="C42">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>3420</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -971,13 +1211,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <f>POWER(B3,2)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="8">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C7" si="0">POWER(B4,2)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="8">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B7" s="10">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <f>POWER(B11,3)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="8">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ref="C12:C15" si="1">POWER(B12,3)</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="8">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="8">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B15" s="10">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="1"/>
+        <v>13824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="8">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <f>3.14*POWER(B19,2)</f>
+        <v>200.96</v>
+      </c>
+      <c r="D19" s="4">
+        <f>2*3.14*B19</f>
+        <v>50.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="8">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:C23" si="2">3.14*POWER(B20,2)</f>
+        <v>452.16</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:D23" si="3">2*3.14*B20</f>
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="8">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>615.44000000000005</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="3"/>
+        <v>87.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="8">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>1017.36</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="3"/>
+        <v>113.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B23" s="10">
+        <v>24</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="2"/>
+        <v>1808.64</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="3"/>
+        <v>150.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>20000</v>
+      </c>
+      <c r="E27">
+        <f>D27*40/100</f>
+        <v>8000</v>
+      </c>
+      <c r="F27">
+        <f>10*D27/100</f>
+        <v>2000</v>
+      </c>
+      <c r="G27">
+        <f>5*D27/100</f>
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <f>SUM(D27:G27)</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>30000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E29" si="4">D28*40/100</f>
+        <v>12000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F29" si="5">10*D28/100</f>
+        <v>3000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G29" si="6">5*D28/100</f>
+        <v>1500</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H29" si="7">SUM(D28:G28)</f>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>40000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>62000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
